--- a/500all/speech_level/speeches_CHRG-114hhrg95070.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Neugebauer. The Subcommittee on Financial Institutions and Consumer Credit will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Protecting Critical Infrastructure: How the Financial Sector Addresses Cyber Threats.''    Before I begin, I would like to thank our witnesses for being here today and for traveling all the way over to 2175. We had a little preview of our new digs, but there is a thing in construction called a ``punch list,'' and I think we had to remove ourselves for a week or so, so they could work on a punch list over there. But we hope to be back in there soon.    As a little bit of housekeeping, I am sure that the majority leader forgot I was having a hearing this afternoon and has scheduled votes sometime here in the next few minutes. And I am sure that was an oversight on his part. But nonetheless, we will have Members who have to go vote. We are going to take care of that little constitutional duty.    I will just remind everyone that the Chair is authorized to call a recess at any time, and so the Members can vote. So I think what we are going to try to do here is we are going to have opening statements and we are going to keep going until they ring the bell. We will ask Members to quickly go over and vote, and we will come back and resume the hearing. After that, we should be good to go for the rest of the hearing.    I am now going to recognize myself for 5 minutes to give an opening statement.    The financial services sector is one of the most complex and critical sectors of the U.S. economy.    Financial sector participants hold deposits for consumers; ensure the consistent flow of capital through our capital markets; provide loans for small businesses; support large, internationally active corporations; and operate some of the most sophisticated payment systems on the globe.    Literally trillions of dollars flow through the financial sector each and every single day. Given its position of critical importance, the financial services sector has become a top target for cyber attacks.    Today and every day this year, there will be 117,334 cyber incidents against the U.S. economy, according to a PricewaterhouseCoopers study.    A recent Depository Trust &amp; Clearing Corporation study highlighted cybersecurity as the number one issue of concern for financial institutions. This top position is held over risks such as overregulation and geopolitical risks.    Last week, SEC Chair Mary Jo White noted that cyber attacks are the ``biggest systemic risk'' facing the United States of America. And Treasury Secretary Jack Lew noted that cybersecurity is one of those issues that keeps him up at night.    Given the importance of this threat, the financial services sector has responded well. The sector has been a leader in setting up an information-sharing framework and has been an active and constructive participant in working with U.S. regulatory agencies and law enforcement. And further, the sector's investment in cybersecurity infrastructure and engagement by senior management has been crucial to preventing future attacks.    However, we should all remember that there is no single institution or system that is 100 percent protected from cyber attacks. The sector faces threats posed by a growing array of cyber criminals, national and state actors, and terrorist organizations. Each has tremendous financial and political incentive to continue looking for weak spots, and to cause sector disruption.    Today's hearing is important for Members to gain a better understanding of some of the top cyber issues facing the financial services sector.    First, we must better understand the nature of cyber threats. Where are threats coming from? What do they look like? And how are we working with global partners?    Second, information-sharing and liability protection are crucial elements to a cyber response framework. We should explore how public-private partnerships help facilitate comprehensive responses to cyber threats, and if there are areas where we should be and can be improving.    Third, contingency preparation is critical to being able to provide continuity in the sector in the wake of a cyber attack. We should better understand the steps the financial services sector is taking to plan for attacks, train employees, and test its system.    Cybersecurity is a shared responsibility. It is a shared responsibility among financial institutions. It is a shared responsibility between the public sector and the government. It is a shared responsibility between the United States and our global allies.    And finally, being thoughtful leaders on this issue is a shared responsibility for members of this committee. I would like to thank my Democratic colleagues for taking this issue so seriously and contributing to a very constructive dialogue.    I would now like to recognize the ranking member of the subcommittee, Mr. Clay, for 3 minutes.</t>
   </si>
   <si>
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and thank you to each of today's witnesses for your testimony. I welcome today's testimony from our panel of practitioners and content area experts. And I view this afternoon's hearing as an important opportunity to shed some light on the financial services industry's ability to effectively monitor, detect, and respond to cyber attacks.    Cyber criminals, state-sponsored and affiliated hackers, and politically-motivated ``hacktivists'' have all targeted the financial services industry. And their tactics have continued to evolve and expand in frequency, scale, sophistication, and severity.    To that end, the financial services industry's response, monitoring, and information-sharing infrastructure, as well as the response capabilities of the relevant Federal regulators, must reflect the dynamic nature of cyber threats.    Mr. Chairman, I firmly believe that cybersecurity is one of a few issues where our committee can truly work in a bipartisan fashion to ensure that our regulators and regulated entities have the necessary resources and support to defend against cyber attacks. I look forward to each witnesses' testimony, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412509</t>
   </si>
   <si>
-    <t>Kyrsten Sinema</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sinema. Thank you, Mr. Chairman. When hackers stole the credit card information of Susan, one of my constituents from Chandler, Arizona, she initially didn't notice an unauthorized $10 donation to a small charity, but the next month she did notice the several hundred dollars in police uniforms that a man in London had purchased using her card, and that is when she called the FBI.    Unfortunately, Susan's story is all too common. Last year alone, according to Verizon's 2015 Data Breach Investigations report, there were more than 79,000 security incidents reported and more than 2,000 confirmed data breaches. These breaches have exposed the personally identifiable information, as well as sensitive financial information, of millions of consumers.    Securing the financial services sector requires us to continue to strengthen security practices and information-sharing infrastructures.    Educating consumers and financial sector participants is also crucial if these efforts are to be successful.    The evolving nature of cyber threats calls for a vigorous and dynamic response. I look forward to hearing more from our witnesses today about how industry is developing safety protocols that keep pace with technological innovation, and how educating consumers and financial sector participants will help better protect consumers like my constituent, Susan.    Thank you, Mr. Chairman. I yield back my time.</t>
   </si>
   <si>
@@ -85,45 +76,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bentsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bentsen. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee for allowing me the opportunity to testify on this critically important topic.    A large-scale cyber attack resulting in the destruction of books and records and disruption of our capital markets is among the most significant and systemic threats facing our economy today, so it is appropriate that so much time and energy is being focused on developing public-private partnerships and identifying solutions to mitigate that risk.    The financial services sector has invested huge sums of capital into their cyber attack deterrence programs over the years, enhancing their efforts to match the growing threat.    As policymakers and the industry focus on addressing the causes of the last financial crisis, it is equally, if not more important that we focus on the future risks, and cyber crime is the greatest.    Some 18 months ago, SIFMA's members commenced the five-part multiyear effort to address cybersecurity threats and related risks to broker-dealers and asset managers. Emanating from our previous work as part of the industry's business continuity planning, and in response to the 2014 NIST framework, the goal of these five initiatives is to better identify the vulnerabilities to our sector and to prepare individual firms of all sizes and the broader sector to defend themselves and our clients, thereby enhancing protection for the millions of Americans who access these markets every day.    My written testimony goes into much more detail on these five initiatives, but I would like to touch on just a few.    SIFMA recently published its principles for effective cybersecurity regulatory guidance and called for regulations to be harmonized across agencies for greater effectiveness. These principles build upon the highly valuable NIST framework, an initiative which we contributed much time and energy to, and after its release have sought out opportunities to promote its use within the sector by mapping existing compliance requirements so firms can see where they could not only enhance risk management, but compliance as well.    The industry also looks to the government to help identify uniform standards, promote accountability across the entire critical infrastructure, and provide access to the essential information. SIFMA urges policymakers to consider how best to incorporate the principles into the respective regulatory initiatives. Importantly, regulators should coordinate their efforts to ensure harmonization.    SIFMA assembled a working group to develop a diagnostic on the U.S. equity and treasury markets to determine the sector's resiliency during the attack. After mapping process flows within these markets, a workshop was held during which a set of 10 diverse cyber risk scenarios were applied to the markets, and a number of potential vulnerabilities were identified.    These results are being addressed via a number of public and private internal working groups. As a result of this exercise, we have undertaken efforts with the accounting industry and the American Institute of CPAs (AICPA) to develop a third-party vendor risk audit standard, referred to as SOC 2, that should provide increased transparency and accountability with third party vendors.    Building off of the lessons learned from the SIFMA-sponsored cyber exercise ``Quantum Dawn 2'' in 2013, and from our experience in Superstorm Sandy, SIFMA continues to revise the industry's playbook for responding to a cyber attack which could result in market closures. On a continuing basis, we are working with stakeholders including exchanges, clearinghouses, and regulators to ensure the current state of readiness.    Our dialogue with the FSSCC and with our partners in government has evolved into a joint exercise program of quarterly tabletop exercises and other large-scale simulations to test industry preparedness and response. Additionally, we have made substantial progress in developing an improved process to request technical assistance from the Federal Government in the midst of a cyber attack. This pre-positioning will help reduce the time it takes to engage the relevant civilian and law enforcement agencies to assist firms.    SIFMA and its member firms have spent considerable time and energy to improve cyber threat information-sharing both within our sector and with our government partners. And at a high level, there has been increased collaboration and communication between the government and the financial services industry.    Importantly, we are endeavoring to continue this collaboration on a regular basis, again to ensure a current state of readiness. There is room for further improvement. However, I would like to flag three recommendations for this committee's consideration.    First, our industry needs clarity on which government authority is responsible for each specific aspect of cybersecurity.    Second, the financial services sector would benefit from higher quality and more frequent classified briefings.    And third, we need Congress to get a cybersecurity information-sharing bill to the President before the next crisis, not after.    Neither the industry nor the government can prevent or prepare for cyber threats on their own. SIFMA has brought together experts from across the public and private sectors to better understand the risks involved in a cyber attack and to develop best practices to be prepared to thwart an attack, but to be effective, we must work closely with the Federal Government to strengthen our partnership, and protect our economy and the millions of Americans who place their confidence and trust in the financial markets each and every day.    Thank you.    [The prepared statement of Mr. Bentsen can be found on page 40 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Now, Mr. Garcia, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Garcia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garcia. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee for the opportunity to testify today.    I am the executive director of the Financial Services Sector Coordinating Council, or FSSCC, which was established in 2002. FSSCC involves 66 of the largest financial firms and their industry associations. I am also pleased to be able to share the witness table today with the FSSCC chairman, Mr. Russell Fitzgibbons.    Today I will discuss how we are organized under regulatory and partnership frameworks to manage the cyber risks and threats that are faced by the financial sector.    The financial sector operates over a network of information and communications technology platforms, making cybersecurity of paramount importance to the sector. A successful cybersecurity or physical attack on these systems could have significant impacts on the global economy and the Nation.    For example, malicious cyber actors vary considerably in terms of motivation and capability, from nation-states conducting corporate espionage to sophisticated cyber criminal groups stealing money, to ``hacktivists'' intent on making political statements. Many cybersecurity incidents, regardless of their original motive, have the potential to disrupt critical systems, even inadvertently.    Thus, the FSSCC's mission is to strengthen the financial sector's resilience against attacks and other threats. We work with the Treasury Department, law enforcement, the Department of Homeland Security, the intelligence community, and regulators toward four main objectives.    First, identify threats through robust information-sharing.    Second, promote protection and preparedness through best practices.    Third, coordinate incident response through joint exercises.    And fourth, consider how the policy environment can promote the above activities.    In practice, these objectives have yielded numerous accomplishments for the benefit of the sector and the economy over the past 10 years.    For example, just to list a few recent examples, we are improving information-sharing content and procedures between government and the sector. We have developed and we maintain an all-hazards crisis response playbook and a cyber response coordination guide that lead our incident responders and our executive decision-makers through decision and action procedures during an incident.    Also, we are conducting joint exercises affecting different segments of the financial system. As Mr. Bentsen alluded to, we maintain a physical presence in the Department of Homeland Security's National Cybersecurity and Communications Integration Center, or NCCIC. This serves as a hub for sharing information related to cybersecurity and communications incidents across sectors.    Our representative there is cleared at the Top Secret/SCI level. Relatedly, we have worked closely with government partners to obtain security clearances for key financial services sector personnel. These clearances have been used to brief the sector on new information security threats and have permitted the exchange of timely and actionable information. We develop best practices involving third-party risks, supply chain, and cyber insurance strategies, among many others.    To go on, we have developed research and development priorities to improve the tools for protection resilience. We are engaging with other critical sectors and international partners to understand and leverage our interdependencies such as communications and electricity.    We have created a financial sector-owned, operated, and governed .bank and .insurance top-level Internet domains. When the Internet-governing authority expanded the number of the so-called top-level domains beyond .com, .gov, .org, .edu, et cetera, they expanded them to hundreds of different names, but we established the .bank and .insurance domains on our own to ensure that we have security standards to protect our system from fraud and cyber attack. This includes imposing eligibility requirements, verification, name selection standards, and other security-focused technical requirements.    Our operational arm, the Financial Services Information Sharing and Analysis Center, or FS-ISAC, has developed a technical tool called Soltra Edge that automates threat sharing and analysis and speeds the time to decision and mitigation from days to hours and minutes.    Finally, a word about regulation. Mr. Chairman, the financial sector is often credited for having developed a mature cybersecurity risk management posture. This is due in part to the fact that financial services is a heavily regulated industry, but it is also because our business models, consumer confidence, and the stability of the financial system are dependent upon a secure and resilient infrastructure. We really can't afford to be complacent.    The financial sector supports the need for regulatory guidance on effective standards of practice for cyber risk management, but as the regulatory agencies are independent, there is not sufficient coordination among them in our experience. One institution may face multiple and differing sets of examination questions about the same security controls depending on which regulator is doing the assessment.    We would urge more uniformity among the regulatory agencies in their examination procedures. This process could be more efficient so that financial firms can focus more on securing our infrastructure and less on answering multiple questionnaires in different ways. We need to ensure we are all aligned with unity of effort toward a common objective: financial services security and resiliency.    Mr. Chairman, that concludes my testimony. I will be happy to answer any questions.    [The prepared statement of Mr. Garcia can be found on page 54 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Mr. Nichols, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Nichols</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nichols. Thank you, Mr. Chairman, Ranking Member Clay, and members of the subcommittee for the opportunity to participate in today's hearing on the threat posed by cyber attacks to our financial system.    As you mentioned, I am here as the CEO of the Financial Services Forum, which is a financial and economic policy organization comprised of the CEOs of 18 of the largest and most diversified financial institutions doing business here in the United States.    Your hearing is both enormously important and remarkably timely. In recent years, cyber attacks have grown rapidly, both in number and level of sophistication. According to Symantec Corporation, a leading information and Internet security firm, cyber attacks around the world have soared 91 percent in 2013 alone.    Just last week, the Depository Trust &amp; Clearing Corporation, a New York-based securities settlement and clearing firm, released its Systemic Risk Barometer for the first quarter of 2015, based on a survey of financial market participants. Asked to identify the top risks to the financial system, respondents cited cyber attacks. Indeed, nearly half of the respondents, 46 percent, cited cybersecurity as their top concern, with respondents specifically noting the growth in the frequency and sophistication of cyber attacks.    Effectively defending against the mounting threat of cyber attacks requires resources, technical sophistication, and cooperation among financial institutions and between the financial industry, other critical infrastructure sectors, and the relevant government agencies. Large financial institutions are working hard to deliver every day on each of those critical fronts.    With regard to resources and technical expertise, large financial institutions remain at the cutting edge of cyber protection and are regarded by most experts--both in the public sector and the private sector--as having developed and deployed some of the most sophisticated and effective defenses against cyber attacks in the corporate world.    With regard to industry cooperation and coordination, cybersecurity in the financial sector is a team effort--because it has to be. To be successful, the industry must invest in, and operate within, a single unified cybersecurity culture.    In particular, large financial institutions are investing in ever-more robust and automated systems of threat analysis and sharing. Automated threat analysis enables the quick and reliable detection and diagnosis of threats. And automated sharing enables the swift dissemination of clear and precise threat information across the financial system. In a very real sense, large financial institutions serve, as one could say, as the forward guard of America's cyber defenses.    Cooperation between industry and government is vital if the battle against mounting cyber threats is to be won. To encourage better cyber threat information-sharing within the financial sector and between industry and government, legislation providing sensible ``Good Samaritan'' protections is needed.    Such legislation should facilitate real-time cyber threat information-sharing to enable financial institutions and government to act quickly; provide liability protection for good faith cyber threat information-sharing; provide targeted protections from public disclosures, such as exemptions from certain Freedom of Information Act requests; facilitate appropriate declassification of pertinent government-generated cyber threat information and expedite issuance of clearances to selected and approved industry executives; and lastly, include appropriate levels of privacy protections.    With these needs in mind, the bill passed by the House on April 22nd, which, of course, you supported, Mr. Chairman, is a major and important step forward, and will greatly facilitate industry's cooperation with government. We hope the Senate will soon take up its information-sharing proposal to continue progress on this important issue. We would urge swift movement and passage on that important legislation.    On behalf of the Forum and its members, I commend you for drawing attention to this issue and this effort. We look forward to working with you in the days ahead.    Thank you, Mr. Chairman.    [The prepared statement of Mr. Nichols can be found on page 68 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Mr. Fitzgibbons, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Fitzgibbons</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fitzgibbons. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee. My name is Russ Fitzgibbons, and I am the executive vice president and chief risk officer of The Clearing House Payments Company.    As the chief risk officer, I am responsible for enterprise risk management, information security, and business continuity. I also serve, as referenced by Mr. Garcia, as the current Chair of the Financial Services Sector Coordinating Council. I appreciate the opportunity to appear before you today to discuss issues that are critical to all Americans--the protection of our payment systems against cyber threats.    The Clearing House is the Nation's oldest banking association and payments company, founded in 1853, and currently owned by 26 banks. We provide payment, clearing, and settlement services to our owner banks and other financial institutions, clearing and settling nearly $2 trillion daily. The Clearing House also engages in payments technology and payments systems security advocacy.    The Clearing House operates the Clearing House Interbank Payments System, commonly referred to as CHIPS, and we are a leading participant in the Automated Clearing House, referred to as ACH, network. We are the only private-sector ACH operator in the country, processing approximately 50 percent of all commercial ACH volume in the United States through our networks.    CHIPS is the largest private-sector US-dollar funds transfer system in the world, clearing and settling an average of $1.5 trillion in payments--both domestic and cross-border--daily.    Because of the volume and importance of the financial transactions enabled by The Clearing House's systems, robust protection of these systems from cyber threats is essential. Those threats have become more frequent and more sophisticated in recent years. The criminal organizations and other groups launching these threats are constantly innovating, and we need to be at least as agile as they are in defending ourselves.    I would like to discuss some of the ways in which The Clearing House works both on its own and frequently in collaboration with other financial services firms to defend itself and its institutional customers against cyber threats.    First, like others in our sector, The Clearing House is subject to special legal and regulatory requirements such as those promulgated by the Federal financial regulatory agencies of the Federal Financial Institutions Examination Council, the FFIEC. The Clearing House's data security practices are subject to regular examination and supervision through the FFIEC's Multi-Regional Data Processing Servicers Program, referenced as     Second, we are constantly innovating. One example of innovation for improved cyber defense is a new platform of The Clearing House which replaces account numbers with randomly generated temporary numbers during processing. With Secure Token Exchange, the customer's actual account information remains behind bank firewalls while preserving the current customer experience.    Third, we engage in training and exercises through simulations that put our cyber defense processes to the test and identify areas for improvement.    Finally, we engage in extensive information-sharing by actively engaging with the FS-ISAC, its member organizations, and our government partners. Truly effective cybersecurity will also require increased efforts by the Federal Government to defend the financial sector against threats often originating overseas, and above all, more effective collaboration between the private sector and the government.    My written statement details some of the additional components of our information-sharing efforts. However, I would like to mention a couple of them.    Through FS-ISAC and the Depository Trust &amp; Clearing Corporation, the sector recently deployed a more effective platform for real-time automated sharing of cyber threat information called Soltra Edge. Utilization and integration of Soltra Edge across the sector's infrastructure is expected to scale significantly over the next few years.    We also coordinate closely with the National Infrastructure Coordinating Center, the Department of Homeland Security's Operation Center that maintains awareness of critical infrastructure for the Federal Government. We participate actively in the Financial Services Sector Coordinating Council, and we also work closely with the Treasury Department's office for critical infrastructure, protection and compliance, and its cyber intelligence group.    While the financial services sector has made considerable strides in its sharing with the sector and with our government partners, there are still areas for improvement. Companies in the financial sector share information quite extensively with the government. We have lots of opportunity to improve our ability to support our cyber first responders, defend critical infrastructure, and protect our stakeholders.    To that end, the Administration has issued two Executive Orders designed to improve sharing from the government to the private sector, and there have been resulting improvements. But we think more work could be done with the analysis of threat information, and government agencies need to continue to increase prioritization and allocation of resources for declassification of information that pertains to network defense.    I would also add that we believe Congress has an important role to play in promoting greater and more effective cybersecurity information-sharing. We support two bills that have passed the House, and we support the information-sharing legislation that is moving through the Senate. And we would urge you to move as quickly as possible to get those bills to the President's desk.    Thank you again for the opportunity to testify, and I look forward to your questions.    [The prepared statement of Mr. Fitzgibbons can be found on page 47 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman. And Mr. Healey, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Healey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Healey. Chairman Neugebauer, Ranking Member Clay, and distinguished members of the subcommittee, thank you for the honor of testifying today.    Over the past nearly 20 years, I have been involved in cyber operations and policy in the military and intelligence community, the White House, and the finance sector. Now, with Columbia University's SIPA and the Atlantic Council think tank, I may be less involved in the day-to-day cyber tumult than my colleagues, but with a bit more freedom to analyze what might be next. Therefore, in the interest of time, I will agree with the strength of the sector that my colleagues have already mentioned in order to look ahead.    Last year we published the first history of cyber conflict of how states have really, over the past 25 years, fought in cyberspace. One of the key lessons is that it may be easy to disrupt a target using the Internet but it is far more difficult to keep it down over time in the face of determined defenses. And as we saw after the attacks of September 11th, the finance sector can be extremely determined.    Therefore, looking forward, I believe the committee need not be overly concerned about a James Bond-style large-scale disruptive attack taking down the sector. This should not mean that we should rest on our successes to date.    In fact, I am deeply worried that the finance sector will get caught up in what I believe is the Internet's most dangerous moment. If nuclear talks with Iran collapsed, there might be a rapid spike in truly disruptive attacks by a dangerous cyber adversary who has already struck at U.S. financial targets. Worse, President Putin of Russia may likewise feel that with his own economic back against the wall, it is time to retaliate with some just deniable enough little green bytes. Facing potentially existential regime threats, Iran and Russia may see little downside to digitally lashing out against a global financial system in which they have few remaining stakes.    As an example of what we might expect, while a next generation Sony-style attack would not take down the sector as a whole, it might seriously disrupt a systemically important financial institution so that it could not clear or settle within--by the end of the day. These dangers require immediate contingency planning and can--including exercises such as those my colleagues have talked about within the sector and with the regulators and other Federal and international partners.    On the government side, the Executive Branch could do a better job of leading from the front and sharing protection and restraint.    The government berates companies to share information, but despite recent gains, it keeps too much information classified or stuck behind bureaucratic barriers. It may need some added push from committees like yours, which oversees the sectors which so desperately need that stuck information.    Likewise, as someone who has proudly worked in both the public and private sectors, it is frustrating to hear bureaucrats or even directors of NSA complain that companies miss standards even in the face of their own Federal Information Security Management Act (FISMA) scores. And even though it should be in the long-term interest of the United States that financial infrastructures should be off-limits to cyber attacks, the Department of Defense has not yet made clear statements to create that norm.    In conclusion, this subcommittee might also usefully push the Executive Branch to think of a broader set of possible responses to give the finance sector more staying power in the event of a sustained conflict such as against Russia or China.    When I was working finance sector-wide events with the FS-ISAC, our responses could have been far more successful not with DOD suppressing fire or cyber ninjas, but with solid officers and NCOs ready to roll up their sleeves to help corral the countless details of a major response. In the face of nation-state cyber threats, we would not want the sector to stumble simply for the lack of a few MOUs in place beforehand for more flexible partnerships.    And if you remember, the FS-ISAC would likely never have been as strong as it is today, if it had not been recapitalized 12 years ago by a grant from Treasury, with the proviso that it would provide service to all regulated American financial institutions, not just those who paid a membership fee. It may be the time for additional innovation using grants, perhaps not directly to the sector anymore, but to the countless other non-stake groups who help defend this Nation's critical infrastructure.    Thank you for your time.    [The prepared statement of Mr. Healey can be found on page 62 of the appendix.]</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>400313</t>
   </si>
   <si>
-    <t>Stevan Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman. I am trying to re-register. Maybe I will stay where I am at.    So, Mr. Fitzgibbons, Mr. Healey said that looking ahead, we need not be overly concerned with large-scale attacks that might seriously disrupt the economy. Is that something you would agree with?</t>
   </si>
   <si>
@@ -286,9 +259,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I want to thank the witnesses for your help today.    I have my doubts about how well-prepared we are. Back in 2010 we had the flash crash, of course, and the market plummeted 600 points in a couple of minutes and then it came right back up. And we did a full study, the CFTC and the SEC, and they told us it was a firm here in the United States, and it was a result of certain trading patterns from that firm.    And then last month, so that was the story they had been giving the Financial Services Committee for the past 4 years. And then they did a further analysis in April of this year. They came out and said that was all wrong. It was actually a fellow named Sarao, a U.K. trader, who was spoofing and doing thousands and thousands of trades. So we had this whole narrative of 4 years about what they found was the problem with the system, and it was all hogwash. And finally 4 years later we find out--we think we find out what the real story is.    So I am just very skeptical that we have a good and strong assessment about the weaknesses in our financial services electronic trading and commerce in general.    Am I wrong in being suspect of the handle that at least the CFTC and the SEC have on all of this?    Mr. Healey?</t>
   </si>
   <si>
@@ -328,9 +298,6 @@
     <t>400247</t>
   </si>
   <si>
-    <t>Frank D. Lucas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Mr. Chairman.    Listening to you--to the panel, I suppose the one observation I would offer up is that in the nature of criminal activity, the desire of the criminal, of course, is to bleed the process, but not to kill the patient--to be able to return and bleed the patient again. Cyber activity that is nationalistic in nature, my phrase, clearly is out to inflict economic damage, to kill the patient.    So in the spirit of that, take me back to the fundamental rudimentary issues here. Describe for me how these kinds of attacks unfold in the fashion we are seeing now. And I don't care which member of the panel discusses it--how these cyber attacks unfold on financial institutions from the perspective of criminal activity or the perspective of a nationalistic effort.</t>
   </si>
   <si>
@@ -361,9 +328,6 @@
     <t>412584</t>
   </si>
   <si>
-    <t>Denny Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman. I want to add my voice to that of Mr. Lynch's expressing my appreciation for conducting this hearing on what I consider to be a very important subject. I appreciate it very much, sir.    I don't know to whom I should address this question. I am going to try Mr. Garcia, just randomly here as a follow up to some of Mr. Lucas' line of inquiry. Do we have a rough sense about what the division is between nation-state attacks and domestic criminal attacks on cyber systems?</t>
   </si>
   <si>
@@ -430,9 +394,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman. And I thank each of you for being here and for your valuable time.    As we consider the stability and the viability of our financial markets and financial institutions, what concern do you have for our electric grid, the important factor that plays? Who would like to respond to that?</t>
   </si>
   <si>
@@ -460,9 +421,6 @@
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman. Now the gentlewoman from New York, Ms. Velazquez, is recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Velazquez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Velazquez. Thank you, Mr. Chairman. I, too, want to thank the chairman and the ranking member for holding this important hearing.    Mr. Garcia, if I may, what is being done by the public and private sectors to advertise the importance of cybersecurity to the small business community? Also, what cost-effective steps can they take to protect themselves and their customers?</t>
   </si>
   <si>
@@ -499,9 +457,6 @@
     <t>412405</t>
   </si>
   <si>
-    <t>Scott R. Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman. I would like to thank the panel for taking the time to be here. Ms. Velazquez and I have a common interest in small businesses.    And, Mr. Garcia, you just mentioned that there was a big effort to be able to get information out to those small businesses. What is the participation level? Do you have any idea?</t>
   </si>
   <si>
@@ -553,9 +508,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman. I thank you all--</t>
   </si>
   <si>
@@ -583,9 +535,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman, and thank you, gentlemen, for doing this.    I am going to ask some simple questions, and I hope I know the answers in advance. But I just want to clarify this because, Mr. Healey, you got my attention during your opening statement, about one of your concerns--probably a valid concern--about the risks that the financial system faces in the event of some rogue international actor.    I think you specifically mentioned Iran or Russia being backed up against the wall, feeling they have no vested interest in the financial system, with very little to lose, especially since they could pull off some type of plausibly deniable type of effort.    So I guess, for the sake of starting the discussion, let me ask you the question then that should be first and foremost in everybody's mind, which is how safe is our money? If I have money in a particular financial institution--pick one of the major institutions--how safe is it in your opinion, sir?</t>
   </si>
   <si>
@@ -652,9 +601,6 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman. It is kind of interesting that we have a TV show now, CSI Cyber. It is interesting that we have come that far.    I want to follow up a little bit on Mr. Mulvaney's remarks with regard to the security of information. But I want to approach it a little bit differently, from a standpoint of sharing the information between the various entities. How much individual information is being shared between the different groups that are involved here whether it be law enforcement, whether it be the EFT transaction folks, the securities, banks, whatever? How much individual information is being shared there? None, a lot, everything?</t>
   </si>
   <si>
@@ -695,9 +641,6 @@
   </si>
   <si>
     <t>400348</t>
-  </si>
-  <si>
-    <t>Edward R. Royce</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Chairman Neugebauer. I appreciate that.    Mr. Bentsen, it is good to see you, and the rest of the panel members there--Mr. Garcia.    I guess, as we get down to the nitty-gritty of how we get to where we need to go, you mentioned earlier the concept of having these different sectors work together. You all work with a number of Federal agencies or--including with the financial regulators, you work and have some knowledge of their expertise, since I think we even have a representative on the NCCIC (N-kick) watch floor.    So the question would be, for better coordination or harmonization, to get there somebody, in my opinion, has to be in charge. Somebody has to take the lead on it, and I don't think that has been asked yet. Maybe, Mr. Bentsen, you could start. Who should be in charge--Treasury, OCC, Homeland, DOD? How do you set this up? Because at the end of the day, unless somebody is in charge, bringing everybody together, it is awfully hard to make it work.</t>
@@ -1138,11 +1081,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1162,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1190,11 +1129,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1214,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1242,11 +1177,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1266,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1294,11 +1225,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1318,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1346,11 +1273,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1370,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1398,11 +1321,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1422,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1450,11 +1369,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1474,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1502,11 +1417,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1526,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1554,11 +1465,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1578,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1606,11 +1513,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1630,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1658,11 +1561,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1682,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1710,11 +1609,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1734,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1762,11 +1657,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1786,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1812,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1838,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1864,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1890,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1916,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1942,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1968,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1994,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2020,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2046,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2072,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2098,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2126,11 +1993,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2152,11 +2017,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2176,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2202,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2228,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2254,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2280,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2306,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2332,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2358,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2384,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>64</v>
-      </c>
-      <c r="H50" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2410,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2436,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2462,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2488,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2514,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2540,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2566,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2592,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2618,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2644,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2670,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2696,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2722,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2748,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2776,11 +2593,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2800,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2826,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2852,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2878,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2904,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2930,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2956,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
-      </c>
-      <c r="G72" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2982,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3008,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3034,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3060,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3086,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3112,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3140,11 +2929,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3164,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3190,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3216,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3242,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3268,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3294,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3320,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3346,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3374,11 +3145,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3398,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3424,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3450,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3476,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3502,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3528,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3554,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3580,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3606,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3632,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3658,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
+        <v>103</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>115</v>
-      </c>
-      <c r="H99" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3684,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3710,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3736,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3762,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3788,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3814,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3840,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3866,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>114</v>
-      </c>
-      <c r="G107" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3892,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3918,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>63</v>
-      </c>
-      <c r="G109" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3944,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>137</v>
-      </c>
-      <c r="G110" t="s">
-        <v>138</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3970,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3996,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>137</v>
-      </c>
-      <c r="G112" t="s">
-        <v>138</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4022,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4048,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4074,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>137</v>
-      </c>
-      <c r="G115" t="s">
-        <v>138</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4100,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4126,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
-      </c>
-      <c r="G117" t="s">
-        <v>138</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4154,11 +3865,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4178,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>148</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4204,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4230,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>148</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4256,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4282,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>148</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4308,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4334,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>148</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4360,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4386,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>148</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4412,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4440,11 +4129,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4464,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>160</v>
-      </c>
-      <c r="G130" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4490,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4516,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>160</v>
-      </c>
-      <c r="G132" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4542,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4568,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4594,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4620,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4646,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4672,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4698,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4724,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>160</v>
-      </c>
-      <c r="G140" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4750,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4776,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G142" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4802,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4828,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
-      </c>
-      <c r="G144" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
         <v>161</v>
-      </c>
-      <c r="H144" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4856,11 +4513,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4880,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>178</v>
-      </c>
-      <c r="G146" t="s">
-        <v>179</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4908,11 +4561,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4932,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>178</v>
-      </c>
-      <c r="G148" t="s">
-        <v>179</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4958,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4984,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>178</v>
-      </c>
-      <c r="G150" t="s">
-        <v>179</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5010,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5036,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>178</v>
-      </c>
-      <c r="G152" t="s">
-        <v>179</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5064,11 +4705,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5088,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>188</v>
-      </c>
-      <c r="G154" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5114,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5140,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>188</v>
-      </c>
-      <c r="G156" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5166,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5192,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
-      </c>
-      <c r="G158" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5218,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5244,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>188</v>
-      </c>
-      <c r="G160" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5270,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5296,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>188</v>
-      </c>
-      <c r="G162" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5322,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5348,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>188</v>
-      </c>
-      <c r="G164" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5374,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5400,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>188</v>
-      </c>
-      <c r="G166" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5426,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5452,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>188</v>
-      </c>
-      <c r="G168" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5478,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5504,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5530,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
-      </c>
-      <c r="G171" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5556,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5582,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>188</v>
-      </c>
-      <c r="G173" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5610,11 +5209,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5634,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>211</v>
-      </c>
-      <c r="G175" t="s">
-        <v>212</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5660,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5686,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>211</v>
-      </c>
-      <c r="G177" t="s">
-        <v>212</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5712,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5738,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>211</v>
-      </c>
-      <c r="G179" t="s">
-        <v>212</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5764,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5790,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>211</v>
-      </c>
-      <c r="G181" t="s">
-        <v>212</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5816,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5842,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5868,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>211</v>
-      </c>
-      <c r="G184" t="s">
-        <v>212</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5894,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5920,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>211</v>
-      </c>
-      <c r="G186" t="s">
-        <v>212</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5948,11 +5521,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5972,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>226</v>
-      </c>
-      <c r="G188" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5998,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6024,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>226</v>
-      </c>
-      <c r="G190" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6050,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6076,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>226</v>
-      </c>
-      <c r="G192" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6102,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6128,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>226</v>
-      </c>
-      <c r="G194" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6154,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6180,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>226</v>
-      </c>
-      <c r="G196" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6206,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6232,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>226</v>
-      </c>
-      <c r="G198" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6258,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6284,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>226</v>
-      </c>
-      <c r="G200" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6312,11 +5857,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95070.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Neugebauer. The Subcommittee on Financial Institutions and Consumer Credit will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Protecting Critical Infrastructure: How the Financial Sector Addresses Cyber Threats.''    Before I begin, I would like to thank our witnesses for being here today and for traveling all the way over to 2175. We had a little preview of our new digs, but there is a thing in construction called a ``punch list,'' and I think we had to remove ourselves for a week or so, so they could work on a punch list over there. But we hope to be back in there soon.    As a little bit of housekeeping, I am sure that the majority leader forgot I was having a hearing this afternoon and has scheduled votes sometime here in the next few minutes. And I am sure that was an oversight on his part. But nonetheless, we will have Members who have to go vote. We are going to take care of that little constitutional duty.    I will just remind everyone that the Chair is authorized to call a recess at any time, and so the Members can vote. So I think what we are going to try to do here is we are going to have opening statements and we are going to keep going until they ring the bell. We will ask Members to quickly go over and vote, and we will come back and resume the hearing. After that, we should be good to go for the rest of the hearing.    I am now going to recognize myself for 5 minutes to give an opening statement.    The financial services sector is one of the most complex and critical sectors of the U.S. economy.    Financial sector participants hold deposits for consumers; ensure the consistent flow of capital through our capital markets; provide loans for small businesses; support large, internationally active corporations; and operate some of the most sophisticated payment systems on the globe.    Literally trillions of dollars flow through the financial sector each and every single day. Given its position of critical importance, the financial services sector has become a top target for cyber attacks.    Today and every day this year, there will be 117,334 cyber incidents against the U.S. economy, according to a PricewaterhouseCoopers study.    A recent Depository Trust &amp; Clearing Corporation study highlighted cybersecurity as the number one issue of concern for financial institutions. This top position is held over risks such as overregulation and geopolitical risks.    Last week, SEC Chair Mary Jo White noted that cyber attacks are the ``biggest systemic risk'' facing the United States of America. And Treasury Secretary Jack Lew noted that cybersecurity is one of those issues that keeps him up at night.    Given the importance of this threat, the financial services sector has responded well. The sector has been a leader in setting up an information-sharing framework and has been an active and constructive participant in working with U.S. regulatory agencies and law enforcement. And further, the sector's investment in cybersecurity infrastructure and engagement by senior management has been crucial to preventing future attacks.    However, we should all remember that there is no single institution or system that is 100 percent protected from cyber attacks. The sector faces threats posed by a growing array of cyber criminals, national and state actors, and terrorist organizations. Each has tremendous financial and political incentive to continue looking for weak spots, and to cause sector disruption.    Today's hearing is important for Members to gain a better understanding of some of the top cyber issues facing the financial services sector.    First, we must better understand the nature of cyber threats. Where are threats coming from? What do they look like? And how are we working with global partners?    Second, information-sharing and liability protection are crucial elements to a cyber response framework. We should explore how public-private partnerships help facilitate comprehensive responses to cyber threats, and if there are areas where we should be and can be improving.    Third, contingency preparation is critical to being able to provide continuity in the sector in the wake of a cyber attack. We should better understand the steps the financial services sector is taking to plan for attacks, train employees, and test its system.    Cybersecurity is a shared responsibility. It is a shared responsibility among financial institutions. It is a shared responsibility between the public sector and the government. It is a shared responsibility between the United States and our global allies.    And finally, being thoughtful leaders on this issue is a shared responsibility for members of this committee. I would like to thank my Democratic colleagues for taking this issue so seriously and contributing to a very constructive dialogue.    I would now like to recognize the ranking member of the subcommittee, Mr. Clay, for 3 minutes.</t>
   </si>
   <si>
     <t>400074</t>
   </si>
   <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Wm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and thank you to each of today's witnesses for your testimony. I welcome today's testimony from our panel of practitioners and content area experts. And I view this afternoon's hearing as an important opportunity to shed some light on the financial services industry's ability to effectively monitor, detect, and respond to cyber attacks.    Cyber criminals, state-sponsored and affiliated hackers, and politically-motivated ``hacktivists'' have all targeted the financial services industry. And their tactics have continued to evolve and expand in frequency, scale, sophistication, and severity.    To that end, the financial services industry's response, monitoring, and information-sharing infrastructure, as well as the response capabilities of the relevant Federal regulators, must reflect the dynamic nature of cyber threats.    Mr. Chairman, I firmly believe that cybersecurity is one of a few issues where our committee can truly work in a bipartisan fashion to ensure that our regulators and regulated entities have the necessary resources and support to defend against cyber attacks. I look forward to each witnesses' testimony, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412509</t>
   </si>
   <si>
+    <t>Sinema</t>
+  </si>
+  <si>
+    <t>Kyrsten</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sinema. Thank you, Mr. Chairman. When hackers stole the credit card information of Susan, one of my constituents from Chandler, Arizona, she initially didn't notice an unauthorized $10 donation to a small charity, but the next month she did notice the several hundred dollars in police uniforms that a man in London had purchased using her card, and that is when she called the FBI.    Unfortunately, Susan's story is all too common. Last year alone, according to Verizon's 2015 Data Breach Investigations report, there were more than 79,000 security incidents reported and more than 2,000 confirmed data breaches. These breaches have exposed the personally identifiable information, as well as sensitive financial information, of millions of consumers.    Securing the financial services sector requires us to continue to strengthen security practices and information-sharing infrastructures.    Educating consumers and financial sector participants is also crucial if these efforts are to be successful.    The evolving nature of cyber threats calls for a vigorous and dynamic response. I look forward to hearing more from our witnesses today about how industry is developing safety protocols that keep pace with technological innovation, and how educating consumers and financial sector participants will help better protect consumers like my constituent, Susan.    Thank you, Mr. Chairman. I yield back my time.</t>
   </si>
   <si>
@@ -76,30 +97,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bentsen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bentsen. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee for allowing me the opportunity to testify on this critically important topic.    A large-scale cyber attack resulting in the destruction of books and records and disruption of our capital markets is among the most significant and systemic threats facing our economy today, so it is appropriate that so much time and energy is being focused on developing public-private partnerships and identifying solutions to mitigate that risk.    The financial services sector has invested huge sums of capital into their cyber attack deterrence programs over the years, enhancing their efforts to match the growing threat.    As policymakers and the industry focus on addressing the causes of the last financial crisis, it is equally, if not more important that we focus on the future risks, and cyber crime is the greatest.    Some 18 months ago, SIFMA's members commenced the five-part multiyear effort to address cybersecurity threats and related risks to broker-dealers and asset managers. Emanating from our previous work as part of the industry's business continuity planning, and in response to the 2014 NIST framework, the goal of these five initiatives is to better identify the vulnerabilities to our sector and to prepare individual firms of all sizes and the broader sector to defend themselves and our clients, thereby enhancing protection for the millions of Americans who access these markets every day.    My written testimony goes into much more detail on these five initiatives, but I would like to touch on just a few.    SIFMA recently published its principles for effective cybersecurity regulatory guidance and called for regulations to be harmonized across agencies for greater effectiveness. These principles build upon the highly valuable NIST framework, an initiative which we contributed much time and energy to, and after its release have sought out opportunities to promote its use within the sector by mapping existing compliance requirements so firms can see where they could not only enhance risk management, but compliance as well.    The industry also looks to the government to help identify uniform standards, promote accountability across the entire critical infrastructure, and provide access to the essential information. SIFMA urges policymakers to consider how best to incorporate the principles into the respective regulatory initiatives. Importantly, regulators should coordinate their efforts to ensure harmonization.    SIFMA assembled a working group to develop a diagnostic on the U.S. equity and treasury markets to determine the sector's resiliency during the attack. After mapping process flows within these markets, a workshop was held during which a set of 10 diverse cyber risk scenarios were applied to the markets, and a number of potential vulnerabilities were identified.    These results are being addressed via a number of public and private internal working groups. As a result of this exercise, we have undertaken efforts with the accounting industry and the American Institute of CPAs (AICPA) to develop a third-party vendor risk audit standard, referred to as SOC 2, that should provide increased transparency and accountability with third party vendors.    Building off of the lessons learned from the SIFMA-sponsored cyber exercise ``Quantum Dawn 2'' in 2013, and from our experience in Superstorm Sandy, SIFMA continues to revise the industry's playbook for responding to a cyber attack which could result in market closures. On a continuing basis, we are working with stakeholders including exchanges, clearinghouses, and regulators to ensure the current state of readiness.    Our dialogue with the FSSCC and with our partners in government has evolved into a joint exercise program of quarterly tabletop exercises and other large-scale simulations to test industry preparedness and response. Additionally, we have made substantial progress in developing an improved process to request technical assistance from the Federal Government in the midst of a cyber attack. This pre-positioning will help reduce the time it takes to engage the relevant civilian and law enforcement agencies to assist firms.    SIFMA and its member firms have spent considerable time and energy to improve cyber threat information-sharing both within our sector and with our government partners. And at a high level, there has been increased collaboration and communication between the government and the financial services industry.    Importantly, we are endeavoring to continue this collaboration on a regular basis, again to ensure a current state of readiness. There is room for further improvement. However, I would like to flag three recommendations for this committee's consideration.    First, our industry needs clarity on which government authority is responsible for each specific aspect of cybersecurity.    Second, the financial services sector would benefit from higher quality and more frequent classified briefings.    And third, we need Congress to get a cybersecurity information-sharing bill to the President before the next crisis, not after.    Neither the industry nor the government can prevent or prepare for cyber threats on their own. SIFMA has brought together experts from across the public and private sectors to better understand the risks involved in a cyber attack and to develop best practices to be prepared to thwart an attack, but to be effective, we must work closely with the Federal Government to strengthen our partnership, and protect our economy and the millions of Americans who place their confidence and trust in the financial markets each and every day.    Thank you.    [The prepared statement of Mr. Bentsen can be found on page 40 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Now, Mr. Garcia, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Garcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garcia. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee for the opportunity to testify today.    I am the executive director of the Financial Services Sector Coordinating Council, or FSSCC, which was established in 2002. FSSCC involves 66 of the largest financial firms and their industry associations. I am also pleased to be able to share the witness table today with the FSSCC chairman, Mr. Russell Fitzgibbons.    Today I will discuss how we are organized under regulatory and partnership frameworks to manage the cyber risks and threats that are faced by the financial sector.    The financial sector operates over a network of information and communications technology platforms, making cybersecurity of paramount importance to the sector. A successful cybersecurity or physical attack on these systems could have significant impacts on the global economy and the Nation.    For example, malicious cyber actors vary considerably in terms of motivation and capability, from nation-states conducting corporate espionage to sophisticated cyber criminal groups stealing money, to ``hacktivists'' intent on making political statements. Many cybersecurity incidents, regardless of their original motive, have the potential to disrupt critical systems, even inadvertently.    Thus, the FSSCC's mission is to strengthen the financial sector's resilience against attacks and other threats. We work with the Treasury Department, law enforcement, the Department of Homeland Security, the intelligence community, and regulators toward four main objectives.    First, identify threats through robust information-sharing.    Second, promote protection and preparedness through best practices.    Third, coordinate incident response through joint exercises.    And fourth, consider how the policy environment can promote the above activities.    In practice, these objectives have yielded numerous accomplishments for the benefit of the sector and the economy over the past 10 years.    For example, just to list a few recent examples, we are improving information-sharing content and procedures between government and the sector. We have developed and we maintain an all-hazards crisis response playbook and a cyber response coordination guide that lead our incident responders and our executive decision-makers through decision and action procedures during an incident.    Also, we are conducting joint exercises affecting different segments of the financial system. As Mr. Bentsen alluded to, we maintain a physical presence in the Department of Homeland Security's National Cybersecurity and Communications Integration Center, or NCCIC. This serves as a hub for sharing information related to cybersecurity and communications incidents across sectors.    Our representative there is cleared at the Top Secret/SCI level. Relatedly, we have worked closely with government partners to obtain security clearances for key financial services sector personnel. These clearances have been used to brief the sector on new information security threats and have permitted the exchange of timely and actionable information. We develop best practices involving third-party risks, supply chain, and cyber insurance strategies, among many others.    To go on, we have developed research and development priorities to improve the tools for protection resilience. We are engaging with other critical sectors and international partners to understand and leverage our interdependencies such as communications and electricity.    We have created a financial sector-owned, operated, and governed .bank and .insurance top-level Internet domains. When the Internet-governing authority expanded the number of the so-called top-level domains beyond .com, .gov, .org, .edu, et cetera, they expanded them to hundreds of different names, but we established the .bank and .insurance domains on our own to ensure that we have security standards to protect our system from fraud and cyber attack. This includes imposing eligibility requirements, verification, name selection standards, and other security-focused technical requirements.    Our operational arm, the Financial Services Information Sharing and Analysis Center, or FS-ISAC, has developed a technical tool called Soltra Edge that automates threat sharing and analysis and speeds the time to decision and mitigation from days to hours and minutes.    Finally, a word about regulation. Mr. Chairman, the financial sector is often credited for having developed a mature cybersecurity risk management posture. This is due in part to the fact that financial services is a heavily regulated industry, but it is also because our business models, consumer confidence, and the stability of the financial system are dependent upon a secure and resilient infrastructure. We really can't afford to be complacent.    The financial sector supports the need for regulatory guidance on effective standards of practice for cyber risk management, but as the regulatory agencies are independent, there is not sufficient coordination among them in our experience. One institution may face multiple and differing sets of examination questions about the same security controls depending on which regulator is doing the assessment.    We would urge more uniformity among the regulatory agencies in their examination procedures. This process could be more efficient so that financial firms can focus more on securing our infrastructure and less on answering multiple questionnaires in different ways. We need to ensure we are all aligned with unity of effort toward a common objective: financial services security and resiliency.    Mr. Chairman, that concludes my testimony. I will be happy to answer any questions.    [The prepared statement of Mr. Garcia can be found on page 54 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Mr. Nichols, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Nichols</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nichols. Thank you, Mr. Chairman, Ranking Member Clay, and members of the subcommittee for the opportunity to participate in today's hearing on the threat posed by cyber attacks to our financial system.    As you mentioned, I am here as the CEO of the Financial Services Forum, which is a financial and economic policy organization comprised of the CEOs of 18 of the largest and most diversified financial institutions doing business here in the United States.    Your hearing is both enormously important and remarkably timely. In recent years, cyber attacks have grown rapidly, both in number and level of sophistication. According to Symantec Corporation, a leading information and Internet security firm, cyber attacks around the world have soared 91 percent in 2013 alone.    Just last week, the Depository Trust &amp; Clearing Corporation, a New York-based securities settlement and clearing firm, released its Systemic Risk Barometer for the first quarter of 2015, based on a survey of financial market participants. Asked to identify the top risks to the financial system, respondents cited cyber attacks. Indeed, nearly half of the respondents, 46 percent, cited cybersecurity as their top concern, with respondents specifically noting the growth in the frequency and sophistication of cyber attacks.    Effectively defending against the mounting threat of cyber attacks requires resources, technical sophistication, and cooperation among financial institutions and between the financial industry, other critical infrastructure sectors, and the relevant government agencies. Large financial institutions are working hard to deliver every day on each of those critical fronts.    With regard to resources and technical expertise, large financial institutions remain at the cutting edge of cyber protection and are regarded by most experts--both in the public sector and the private sector--as having developed and deployed some of the most sophisticated and effective defenses against cyber attacks in the corporate world.    With regard to industry cooperation and coordination, cybersecurity in the financial sector is a team effort--because it has to be. To be successful, the industry must invest in, and operate within, a single unified cybersecurity culture.    In particular, large financial institutions are investing in ever-more robust and automated systems of threat analysis and sharing. Automated threat analysis enables the quick and reliable detection and diagnosis of threats. And automated sharing enables the swift dissemination of clear and precise threat information across the financial system. In a very real sense, large financial institutions serve, as one could say, as the forward guard of America's cyber defenses.    Cooperation between industry and government is vital if the battle against mounting cyber threats is to be won. To encourage better cyber threat information-sharing within the financial sector and between industry and government, legislation providing sensible ``Good Samaritan'' protections is needed.    Such legislation should facilitate real-time cyber threat information-sharing to enable financial institutions and government to act quickly; provide liability protection for good faith cyber threat information-sharing; provide targeted protections from public disclosures, such as exemptions from certain Freedom of Information Act requests; facilitate appropriate declassification of pertinent government-generated cyber threat information and expedite issuance of clearances to selected and approved industry executives; and lastly, include appropriate levels of privacy protections.    With these needs in mind, the bill passed by the House on April 22nd, which, of course, you supported, Mr. Chairman, is a major and important step forward, and will greatly facilitate industry's cooperation with government. We hope the Senate will soon take up its information-sharing proposal to continue progress on this important issue. We would urge swift movement and passage on that important legislation.    On behalf of the Forum and its members, I commend you for drawing attention to this issue and this effort. We look forward to working with you in the days ahead.    Thank you, Mr. Chairman.    [The prepared statement of Mr. Nichols can be found on page 68 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Mr. Fitzgibbons, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Fitzgibbons</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fitzgibbons. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee. My name is Russ Fitzgibbons, and I am the executive vice president and chief risk officer of The Clearing House Payments Company.    As the chief risk officer, I am responsible for enterprise risk management, information security, and business continuity. I also serve, as referenced by Mr. Garcia, as the current Chair of the Financial Services Sector Coordinating Council. I appreciate the opportunity to appear before you today to discuss issues that are critical to all Americans--the protection of our payment systems against cyber threats.    The Clearing House is the Nation's oldest banking association and payments company, founded in 1853, and currently owned by 26 banks. We provide payment, clearing, and settlement services to our owner banks and other financial institutions, clearing and settling nearly $2 trillion daily. The Clearing House also engages in payments technology and payments systems security advocacy.    The Clearing House operates the Clearing House Interbank Payments System, commonly referred to as CHIPS, and we are a leading participant in the Automated Clearing House, referred to as ACH, network. We are the only private-sector ACH operator in the country, processing approximately 50 percent of all commercial ACH volume in the United States through our networks.    CHIPS is the largest private-sector US-dollar funds transfer system in the world, clearing and settling an average of $1.5 trillion in payments--both domestic and cross-border--daily.    Because of the volume and importance of the financial transactions enabled by The Clearing House's systems, robust protection of these systems from cyber threats is essential. Those threats have become more frequent and more sophisticated in recent years. The criminal organizations and other groups launching these threats are constantly innovating, and we need to be at least as agile as they are in defending ourselves.    I would like to discuss some of the ways in which The Clearing House works both on its own and frequently in collaboration with other financial services firms to defend itself and its institutional customers against cyber threats.    First, like others in our sector, The Clearing House is subject to special legal and regulatory requirements such as those promulgated by the Federal financial regulatory agencies of the Federal Financial Institutions Examination Council, the FFIEC. The Clearing House's data security practices are subject to regular examination and supervision through the FFIEC's Multi-Regional Data Processing Servicers Program, referenced as     Second, we are constantly innovating. One example of innovation for improved cyber defense is a new platform of The Clearing House which replaces account numbers with randomly generated temporary numbers during processing. With Secure Token Exchange, the customer's actual account information remains behind bank firewalls while preserving the current customer experience.    Third, we engage in training and exercises through simulations that put our cyber defense processes to the test and identify areas for improvement.    Finally, we engage in extensive information-sharing by actively engaging with the FS-ISAC, its member organizations, and our government partners. Truly effective cybersecurity will also require increased efforts by the Federal Government to defend the financial sector against threats often originating overseas, and above all, more effective collaboration between the private sector and the government.    My written statement details some of the additional components of our information-sharing efforts. However, I would like to mention a couple of them.    Through FS-ISAC and the Depository Trust &amp; Clearing Corporation, the sector recently deployed a more effective platform for real-time automated sharing of cyber threat information called Soltra Edge. Utilization and integration of Soltra Edge across the sector's infrastructure is expected to scale significantly over the next few years.    We also coordinate closely with the National Infrastructure Coordinating Center, the Department of Homeland Security's Operation Center that maintains awareness of critical infrastructure for the Federal Government. We participate actively in the Financial Services Sector Coordinating Council, and we also work closely with the Treasury Department's office for critical infrastructure, protection and compliance, and its cyber intelligence group.    While the financial services sector has made considerable strides in its sharing with the sector and with our government partners, there are still areas for improvement. Companies in the financial sector share information quite extensively with the government. We have lots of opportunity to improve our ability to support our cyber first responders, defend critical infrastructure, and protect our stakeholders.    To that end, the Administration has issued two Executive Orders designed to improve sharing from the government to the private sector, and there have been resulting improvements. But we think more work could be done with the analysis of threat information, and government agencies need to continue to increase prioritization and allocation of resources for declassification of information that pertains to network defense.    I would also add that we believe Congress has an important role to play in promoting greater and more effective cybersecurity information-sharing. We support two bills that have passed the House, and we support the information-sharing legislation that is moving through the Senate. And we would urge you to move as quickly as possible to get those bills to the President's desk.    Thank you again for the opportunity to testify, and I look forward to your questions.    [The prepared statement of Mr. Fitzgibbons can be found on page 47 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman. And Mr. Healey, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Healey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Healey. Chairman Neugebauer, Ranking Member Clay, and distinguished members of the subcommittee, thank you for the honor of testifying today.    Over the past nearly 20 years, I have been involved in cyber operations and policy in the military and intelligence community, the White House, and the finance sector. Now, with Columbia University's SIPA and the Atlantic Council think tank, I may be less involved in the day-to-day cyber tumult than my colleagues, but with a bit more freedom to analyze what might be next. Therefore, in the interest of time, I will agree with the strength of the sector that my colleagues have already mentioned in order to look ahead.    Last year we published the first history of cyber conflict of how states have really, over the past 25 years, fought in cyberspace. One of the key lessons is that it may be easy to disrupt a target using the Internet but it is far more difficult to keep it down over time in the face of determined defenses. And as we saw after the attacks of September 11th, the finance sector can be extremely determined.    Therefore, looking forward, I believe the committee need not be overly concerned about a James Bond-style large-scale disruptive attack taking down the sector. This should not mean that we should rest on our successes to date.    In fact, I am deeply worried that the finance sector will get caught up in what I believe is the Internet's most dangerous moment. If nuclear talks with Iran collapsed, there might be a rapid spike in truly disruptive attacks by a dangerous cyber adversary who has already struck at U.S. financial targets. Worse, President Putin of Russia may likewise feel that with his own economic back against the wall, it is time to retaliate with some just deniable enough little green bytes. Facing potentially existential regime threats, Iran and Russia may see little downside to digitally lashing out against a global financial system in which they have few remaining stakes.    As an example of what we might expect, while a next generation Sony-style attack would not take down the sector as a whole, it might seriously disrupt a systemically important financial institution so that it could not clear or settle within--by the end of the day. These dangers require immediate contingency planning and can--including exercises such as those my colleagues have talked about within the sector and with the regulators and other Federal and international partners.    On the government side, the Executive Branch could do a better job of leading from the front and sharing protection and restraint.    The government berates companies to share information, but despite recent gains, it keeps too much information classified or stuck behind bureaucratic barriers. It may need some added push from committees like yours, which oversees the sectors which so desperately need that stuck information.    Likewise, as someone who has proudly worked in both the public and private sectors, it is frustrating to hear bureaucrats or even directors of NSA complain that companies miss standards even in the face of their own Federal Information Security Management Act (FISMA) scores. And even though it should be in the long-term interest of the United States that financial infrastructures should be off-limits to cyber attacks, the Department of Defense has not yet made clear statements to create that norm.    In conclusion, this subcommittee might also usefully push the Executive Branch to think of a broader set of possible responses to give the finance sector more staying power in the event of a sustained conflict such as against Russia or China.    When I was working finance sector-wide events with the FS-ISAC, our responses could have been far more successful not with DOD suppressing fire or cyber ninjas, but with solid officers and NCOs ready to roll up their sleeves to help corral the countless details of a major response. In the face of nation-state cyber threats, we would not want the sector to stumble simply for the lack of a few MOUs in place beforehand for more flexible partnerships.    And if you remember, the FS-ISAC would likely never have been as strong as it is today, if it had not been recapitalized 12 years ago by a grant from Treasury, with the proviso that it would provide service to all regulated American financial institutions, not just those who paid a membership fee. It may be the time for additional innovation using grants, perhaps not directly to the sector anymore, but to the countless other non-stake groups who help defend this Nation's critical infrastructure.    Thank you for your time.    [The prepared statement of Mr. Healey can be found on page 62 of the appendix.]</t>
   </si>
   <si>
@@ -184,6 +220,12 @@
     <t>400313</t>
   </si>
   <si>
+    <t>Pearce</t>
+  </si>
+  <si>
+    <t>Stevan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman. I am trying to re-register. Maybe I will stay where I am at.    So, Mr. Fitzgibbons, Mr. Healey said that looking ahead, we need not be overly concerned with large-scale attacks that might seriously disrupt the economy. Is that something you would agree with?</t>
   </si>
   <si>
@@ -259,6 +301,12 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I want to thank the witnesses for your help today.    I have my doubts about how well-prepared we are. Back in 2010 we had the flash crash, of course, and the market plummeted 600 points in a couple of minutes and then it came right back up. And we did a full study, the CFTC and the SEC, and they told us it was a firm here in the United States, and it was a result of certain trading patterns from that firm.    And then last month, so that was the story they had been giving the Financial Services Committee for the past 4 years. And then they did a further analysis in April of this year. They came out and said that was all wrong. It was actually a fellow named Sarao, a U.K. trader, who was spoofing and doing thousands and thousands of trades. So we had this whole narrative of 4 years about what they found was the problem with the system, and it was all hogwash. And finally 4 years later we find out--we think we find out what the real story is.    So I am just very skeptical that we have a good and strong assessment about the weaknesses in our financial services electronic trading and commerce in general.    Am I wrong in being suspect of the handle that at least the CFTC and the SEC have on all of this?    Mr. Healey?</t>
   </si>
   <si>
@@ -298,6 +346,12 @@
     <t>400247</t>
   </si>
   <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Mr. Chairman.    Listening to you--to the panel, I suppose the one observation I would offer up is that in the nature of criminal activity, the desire of the criminal, of course, is to bleed the process, but not to kill the patient--to be able to return and bleed the patient again. Cyber activity that is nationalistic in nature, my phrase, clearly is out to inflict economic damage, to kill the patient.    So in the spirit of that, take me back to the fundamental rudimentary issues here. Describe for me how these kinds of attacks unfold in the fashion we are seeing now. And I don't care which member of the panel discusses it--how these cyber attacks unfold on financial institutions from the perspective of criminal activity or the perspective of a nationalistic effort.</t>
   </si>
   <si>
@@ -328,6 +382,12 @@
     <t>412584</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Denny</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman. I want to add my voice to that of Mr. Lynch's expressing my appreciation for conducting this hearing on what I consider to be a very important subject. I appreciate it very much, sir.    I don't know to whom I should address this question. I am going to try Mr. Garcia, just randomly here as a follow up to some of Mr. Lucas' line of inquiry. Do we have a rough sense about what the division is between nation-state attacks and domestic criminal attacks on cyber systems?</t>
   </si>
   <si>
@@ -394,6 +454,12 @@
     <t>412551</t>
   </si>
   <si>
+    <t>Pittenger</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman. And I thank each of you for being here and for your valuable time.    As we consider the stability and the viability of our financial markets and financial institutions, what concern do you have for our electric grid, the important factor that plays? Who would like to respond to that?</t>
   </si>
   <si>
@@ -421,6 +487,9 @@
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman. Now the gentlewoman from New York, Ms. Velazquez, is recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Velazquez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Velazquez. Thank you, Mr. Chairman. I, too, want to thank the chairman and the ranking member for holding this important hearing.    Mr. Garcia, if I may, what is being done by the public and private sectors to advertise the importance of cybersecurity to the small business community? Also, what cost-effective steps can they take to protect themselves and their customers?</t>
   </si>
   <si>
@@ -457,6 +526,12 @@
     <t>412405</t>
   </si>
   <si>
+    <t>Tipton</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman. I would like to thank the panel for taking the time to be here. Ms. Velazquez and I have a common interest in small businesses.    And, Mr. Garcia, you just mentioned that there was a big effort to be able to get information out to those small businesses. What is the participation level? Do you have any idea?</t>
   </si>
   <si>
@@ -508,6 +583,12 @@
     <t>412578</t>
   </si>
   <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman. I thank you all--</t>
   </si>
   <si>
@@ -535,6 +616,12 @@
     <t>412474</t>
   </si>
   <si>
+    <t>Mulvaney</t>
+  </si>
+  <si>
+    <t>Mick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman, and thank you, gentlemen, for doing this.    I am going to ask some simple questions, and I hope I know the answers in advance. But I just want to clarify this because, Mr. Healey, you got my attention during your opening statement, about one of your concerns--probably a valid concern--about the risks that the financial system faces in the event of some rogue international actor.    I think you specifically mentioned Iran or Russia being backed up against the wall, feeling they have no vested interest in the financial system, with very little to lose, especially since they could pull off some type of plausibly deniable type of effort.    So I guess, for the sake of starting the discussion, let me ask you the question then that should be first and foremost in everybody's mind, which is how safe is our money? If I have money in a particular financial institution--pick one of the major institutions--how safe is it in your opinion, sir?</t>
   </si>
   <si>
@@ -601,6 +688,12 @@
     <t>412292</t>
   </si>
   <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman. It is kind of interesting that we have a TV show now, CSI Cyber. It is interesting that we have come that far.    I want to follow up a little bit on Mr. Mulvaney's remarks with regard to the security of information. But I want to approach it a little bit differently, from a standpoint of sharing the information between the various entities. How much individual information is being shared between the different groups that are involved here whether it be law enforcement, whether it be the EFT transaction folks, the securities, banks, whatever? How much individual information is being shared there? None, a lot, everything?</t>
   </si>
   <si>
@@ -641,6 +734,12 @@
   </si>
   <si>
     <t>400348</t>
+  </si>
+  <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Chairman Neugebauer. I appreciate that.    Mr. Bentsen, it is good to see you, and the rest of the panel members there--Mr. Garcia.    I guess, as we get down to the nitty-gritty of how we get to where we need to go, you mentioned earlier the concept of having these different sectors work together. You all work with a number of Federal agencies or--including with the financial regulators, you work and have some knowledge of their expertise, since I think we even have a representative on the NCCIC (N-kick) watch floor.    So the question would be, for better coordination or harmonization, to get there somebody, in my opinion, has to be in charge. Somebody has to take the lead on it, and I don't think that has been asked yet. Maybe, Mr. Bentsen, you could start. Who should be in charge--Treasury, OCC, Homeland, DOD? How do you set this up? Because at the end of the day, unless somebody is in charge, bringing everybody together, it is awfully hard to make it work.</t>
@@ -1031,7 +1130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,7 +1138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,4805 +1160,5624 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>95</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
+      </c>
       <c r="H74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>95</v>
+      </c>
       <c r="H76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G78" t="s">
+        <v>95</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>93</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>110</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
+        <v>110</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G89" t="s">
+        <v>122</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G91" t="s">
+        <v>122</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G93" t="s">
+        <v>122</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G95" t="s">
+        <v>122</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G97" t="s">
+        <v>122</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G99" t="s">
+        <v>122</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>103</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G103" t="s">
+        <v>122</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G105" t="s">
+        <v>122</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G107" t="s">
+        <v>122</v>
+      </c>
       <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>55</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G109" t="s">
+        <v>68</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G110" t="s">
+        <v>146</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G112" t="s">
+        <v>146</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>125</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G115" t="s">
+        <v>146</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s">
+        <v>39</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>125</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G117" t="s">
+        <v>146</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>157</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>157</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>157</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>157</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>157</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G130" t="s">
+        <v>170</v>
+      </c>
       <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G132" t="s">
+        <v>170</v>
+      </c>
       <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G135" t="s">
+        <v>170</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>146</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G137" t="s">
+        <v>170</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G140" t="s">
+        <v>170</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>146</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G142" t="s">
+        <v>170</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s">
+        <v>36</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G144" t="s">
+        <v>170</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>163</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G146" t="s">
+        <v>189</v>
+      </c>
       <c r="H146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G148" t="s">
+        <v>189</v>
+      </c>
       <c r="H148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s">
+        <v>39</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>163</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G150" t="s">
+        <v>189</v>
+      </c>
       <c r="H150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>163</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="G152" t="s">
+        <v>189</v>
+      </c>
       <c r="H152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>172</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G154" t="s">
+        <v>200</v>
+      </c>
       <c r="H154" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>39</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>172</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G156" t="s">
+        <v>200</v>
+      </c>
       <c r="H156" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s">
+        <v>39</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>172</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G158" t="s">
+        <v>200</v>
+      </c>
       <c r="H158" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G159" t="s">
+        <v>39</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>172</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G160" t="s">
+        <v>200</v>
+      </c>
       <c r="H160" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G161" t="s">
+        <v>39</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>172</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G162" t="s">
+        <v>200</v>
+      </c>
       <c r="H162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G163" t="s">
+        <v>36</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>172</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G164" t="s">
+        <v>200</v>
+      </c>
       <c r="H164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G165" t="s">
+        <v>39</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>172</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G166" t="s">
+        <v>200</v>
+      </c>
       <c r="H166" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G167" t="s">
+        <v>39</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>172</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G168" t="s">
+        <v>200</v>
+      </c>
       <c r="H168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G169" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s">
+        <v>27</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>172</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G171" t="s">
+        <v>200</v>
+      </c>
       <c r="H171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I171" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G172" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>172</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G173" t="s">
+        <v>200</v>
+      </c>
       <c r="H173" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>194</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="G175" t="s">
+        <v>224</v>
+      </c>
       <c r="H175" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I175" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s">
+        <v>36</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>194</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="G177" t="s">
+        <v>224</v>
+      </c>
       <c r="H177" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s">
+        <v>36</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>194</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="G179" t="s">
+        <v>224</v>
+      </c>
       <c r="H179" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G180" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="G181" t="s">
+        <v>224</v>
+      </c>
       <c r="H181" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I181" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G182" t="s">
+        <v>30</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G183" t="s">
+        <v>39</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>194</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="G184" t="s">
+        <v>224</v>
+      </c>
       <c r="H184" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I184" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G185" t="s">
+        <v>27</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>194</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>223</v>
+      </c>
+      <c r="G186" t="s">
+        <v>224</v>
+      </c>
       <c r="H186" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I186" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>208</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G188" t="s">
+        <v>240</v>
+      </c>
       <c r="H188" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I188" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>208</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G190" t="s">
+        <v>240</v>
+      </c>
       <c r="H190" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I190" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G191" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>208</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G192" t="s">
+        <v>240</v>
+      </c>
       <c r="H192" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I192" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G193" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>208</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G194" t="s">
+        <v>240</v>
+      </c>
       <c r="H194" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I194" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G195" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>208</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G196" t="s">
+        <v>240</v>
+      </c>
       <c r="H196" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G197" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>208</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G198" t="s">
+        <v>240</v>
+      </c>
       <c r="H198" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I198" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>208</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>239</v>
+      </c>
+      <c r="G200" t="s">
+        <v>240</v>
+      </c>
       <c r="H200" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I200" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>222</v>
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95070.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400441</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Neugebauer</t>
@@ -1130,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1144,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,5621 +1169,6040 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G78" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>39</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G84" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G87" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G89" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G91" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s">
-        <v>36</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G95" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>39</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G99" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>39</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s">
-        <v>39</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G103" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s">
-        <v>39</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G105" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" t="s">
-        <v>39</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G110" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G112" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" t="s">
-        <v>36</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" t="s">
-        <v>39</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G117" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I117" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>157</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>159</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>157</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>159</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>157</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>159</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s">
-        <v>33</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>157</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>159</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s">
-        <v>157</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>159</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I130" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>32</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I132" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>32</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G135" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I135" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" t="s">
-        <v>33</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G137" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I137" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>35</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G140" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s">
-        <v>30</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>32</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G142" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" t="s">
-        <v>36</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>38</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G144" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G146" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I146" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G148" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I148" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" t="s">
-        <v>39</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>41</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G150" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I150" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J150" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G152" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I152" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G154" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I154" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" t="s">
-        <v>39</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G156" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I156" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J156" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" t="s">
-        <v>39</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>41</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G158" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I158" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J158" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" t="s">
-        <v>39</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>41</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G160" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I160" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J160" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" t="s">
-        <v>39</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>41</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G162" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I162" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J162" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>26</v>
-      </c>
-      <c r="G163" t="s">
-        <v>36</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>38</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G164" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I164" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" t="s">
-        <v>39</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G166" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I166" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J166" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" t="s">
-        <v>39</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>41</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G168" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I168" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J168" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" t="s">
-        <v>33</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>35</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>29</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G171" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I171" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J171" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G173" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I173" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J173" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G175" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I175" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>227</v>
+      </c>
+      <c r="J175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" t="s">
-        <v>36</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>38</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G177" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I177" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>227</v>
+      </c>
+      <c r="J177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" t="s">
-        <v>36</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>38</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G179" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I179" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>227</v>
+      </c>
+      <c r="J179" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" t="s">
-        <v>30</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G181" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I181" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>227</v>
+      </c>
+      <c r="J181" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" t="s">
-        <v>30</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>32</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" t="s">
-        <v>39</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>41</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G184" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I184" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>227</v>
+      </c>
+      <c r="J184" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" t="s">
-        <v>27</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G186" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I186" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>227</v>
+      </c>
+      <c r="J186" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G188" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I188" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" t="s">
-        <v>27</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G190" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I190" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J190" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" t="s">
-        <v>30</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G192" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I192" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
-      </c>
-      <c r="G193" t="s">
-        <v>30</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>32</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G194" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I194" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J194" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>26</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>32</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G196" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I196" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J196" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" t="s">
-        <v>30</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>32</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G198" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I198" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J198" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" t="s">
-        <v>30</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>32</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G200" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J200" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>255</v>
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
